--- a/20250328/gtepuc.xlsx
+++ b/20250328/gtepuc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/TsingHua/科研进展/发输联合规划/代码迭代/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyue/Documents/GitHub/TEPwithCEF/20250328/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E5D96-1A28-404B-B9D7-69FAB91B8BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093570DD-6AFB-8742-866D-A13C558C0C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{2BAB91DA-CDC9-8D43-98F4-72B52726A2BF}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +214,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,6 +303,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,7 +686,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="5">
@@ -711,7 +721,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -744,7 +754,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -777,7 +787,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -810,7 +820,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="5">
@@ -839,7 +849,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
@@ -866,7 +876,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
@@ -893,7 +903,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="17" customHeight="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -920,7 +930,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5">
         <v>5</v>
       </c>
@@ -947,7 +957,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5">
@@ -976,7 +986,7 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -1052,7 +1062,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,15 +1089,15 @@
       <c r="B2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="K2" t="s">
         <v>28</v>
       </c>
@@ -1100,10 +1110,10 @@
         <v>1775.835</v>
       </c>
       <c r="C3">
-        <f>B3/2</f>
-        <v>887.91750000000002</v>
-      </c>
-      <c r="D3" s="16"/>
+        <f>B3/2.65</f>
+        <v>670.12641509433968</v>
+      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1119,8 +1129,7 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <f>K3/K33*L33</f>
+      <c r="L3" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1132,8 +1141,8 @@
         <v>1669.8150000000001</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C26" si="0">B4/2</f>
-        <v>834.90750000000003</v>
+        <f t="shared" ref="C4:C26" si="0">B4/2.65</f>
+        <v>630.11886792452833</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -1153,9 +1162,8 @@
       <c r="K4">
         <v>21.7</v>
       </c>
-      <c r="L4">
-        <f>K4/K33*L33</f>
-        <v>151.96881606765331</v>
+      <c r="L4" s="15">
+        <v>114.69344599999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1167,7 +1175,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>795.15</v>
+        <v>600.11320754716985</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -1187,9 +1195,8 @@
       <c r="K5">
         <v>2.4</v>
       </c>
-      <c r="L5">
-        <f>K5/189.2*1325</f>
-        <v>16.807610993657505</v>
+      <c r="L5" s="15">
+        <v>12.684989399999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1201,7 +1208,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>781.89750000000004</v>
+        <v>590.11132075471698</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -1221,9 +1228,8 @@
       <c r="K6">
         <v>7.6</v>
       </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L32" si="1">K6/189.2*1325</f>
-        <v>53.22410147991544</v>
+      <c r="L6" s="15">
+        <v>40.169133199999997</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1235,7 +1241,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>781.89750000000004</v>
+        <v>590.11132075471698</v>
       </c>
       <c r="D7" s="9">
         <v>4</v>
@@ -1255,8 +1261,7 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
+      <c r="L7" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1274,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>795.15</v>
+        <v>600.11320754716985</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -1289,8 +1294,7 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
+      <c r="L8" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1307,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>980.68499999999995</v>
+        <v>740.13962264150939</v>
       </c>
       <c r="D9" s="9">
         <v>6</v>
@@ -1323,9 +1327,8 @@
       <c r="K9">
         <v>22.8</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>159.67230443974631</v>
+      <c r="L9" s="15">
+        <v>120.5074</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1337,7 +1340,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>1139.7149999999999</v>
+        <v>860.16226415094332</v>
       </c>
       <c r="D10" s="9">
         <v>7</v>
@@ -1357,9 +1360,8 @@
       <c r="K10">
         <v>30</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>210.09513742071883</v>
+      <c r="L10" s="15">
+        <v>158.56236799999999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1371,7 +1373,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>1258.9875</v>
+        <v>950.17924528301887</v>
       </c>
       <c r="D11" s="9">
         <v>8</v>
@@ -1391,8 +1393,7 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
+      <c r="L11" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1405,7 +1406,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1272.24</v>
+        <v>960.18113207547174</v>
       </c>
       <c r="D12" s="9">
         <v>9</v>
@@ -1425,9 +1426,8 @@
       <c r="K12">
         <v>5.8</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>40.618393234672304</v>
+      <c r="L12" s="15">
+        <v>30.655391099999999</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>1272.24</v>
+        <v>960.18113207547174</v>
       </c>
       <c r="D13" s="9">
         <v>10</v>
@@ -1459,8 +1459,7 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
+      <c r="L13" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1472,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1258.9875</v>
+        <v>950.17924528301887</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
@@ -1493,9 +1492,8 @@
       <c r="K14">
         <v>11.2</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>78.43551797040169</v>
+      <c r="L14" s="15">
+        <v>59.1966173</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1507,7 +1505,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1258.9875</v>
+        <v>950.17924528301887</v>
       </c>
       <c r="D15" s="9">
         <v>12</v>
@@ -1527,8 +1525,7 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
+      <c r="L15" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1541,7 +1538,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1258.9875</v>
+        <v>950.17924528301887</v>
       </c>
       <c r="D16" s="9">
         <v>13</v>
@@ -1561,9 +1558,8 @@
       <c r="K16">
         <v>6.2</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>43.419661733615229</v>
+      <c r="L16" s="15">
+        <v>32.769556000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1575,7 +1571,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1232.4825000000001</v>
+        <v>930.17547169811326</v>
       </c>
       <c r="D17" s="9">
         <v>14</v>
@@ -1595,9 +1591,8 @@
       <c r="K17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>57.426004228329809</v>
+      <c r="L17" s="15">
+        <v>43.340380500000002</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1609,7 +1604,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1232.4825000000001</v>
+        <v>930.17547169811326</v>
       </c>
       <c r="D18" s="9">
         <v>15</v>
@@ -1629,9 +1624,8 @@
       <c r="K18">
         <v>3.5</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>24.511099365750532</v>
+      <c r="L18" s="15">
+        <v>18.498942899999999</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1643,7 +1637,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1311.9974999999999</v>
+        <v>990.18679245283022</v>
       </c>
       <c r="D19" s="9">
         <v>16</v>
@@ -1663,9 +1657,8 @@
       <c r="K19">
         <v>9</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>63.028541226215651</v>
+      <c r="L19" s="15">
+        <v>47.568710400000001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1677,7 +1670,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>1325.25</v>
+        <v>1000.1886792452831</v>
       </c>
       <c r="D20" s="9">
         <v>17</v>
@@ -1697,9 +1690,8 @@
       <c r="K20">
         <v>3.2</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>22.41014799154334</v>
+      <c r="L20" s="15">
+        <v>16.9133192</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1711,7 +1703,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1325.25</v>
+        <v>1000.1886792452831</v>
       </c>
       <c r="D21" s="9">
         <v>18</v>
@@ -1731,9 +1723,8 @@
       <c r="K21">
         <v>9.5</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>66.530126849894287</v>
+      <c r="L21" s="15">
+        <v>50.211416499999999</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1745,7 +1736,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1272.24</v>
+        <v>960.18113207547174</v>
       </c>
       <c r="D22" s="9">
         <v>19</v>
@@ -1765,9 +1756,8 @@
       <c r="K22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>15.406976744186048</v>
+      <c r="L22" s="15">
+        <v>11.627907</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1779,7 +1769,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1205.9775</v>
+        <v>910.17169811320753</v>
       </c>
       <c r="D23" s="9">
         <v>20</v>
@@ -1799,9 +1789,8 @@
       <c r="K23">
         <v>17.5</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>122.55549682875265</v>
+      <c r="L23" s="15">
+        <v>92.494714599999995</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1813,7 +1802,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1099.9575</v>
+        <v>830.15660377358495</v>
       </c>
       <c r="D24" s="9">
         <v>21</v>
@@ -1833,8 +1822,7 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
+      <c r="L24" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1847,7 +1835,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>967.4325</v>
+        <v>730.13773584905664</v>
       </c>
       <c r="D25" s="9">
         <v>22</v>
@@ -1867,9 +1855,8 @@
       <c r="K25">
         <v>3.2</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>22.41014799154334</v>
+      <c r="L25" s="15">
+        <v>16.9133192</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1881,7 +1868,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>834.90750000000003</v>
+        <v>630.11886792452833</v>
       </c>
       <c r="D26" s="9">
         <v>23</v>
@@ -1901,15 +1888,14 @@
       <c r="K26">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>60.92758985200846</v>
+      <c r="L26" s="15">
+        <v>45.983086700000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="C27">
         <f>MAX(C3:C26)</f>
-        <v>1325.25</v>
+        <v>1000.1886792452831</v>
       </c>
       <c r="D27" s="9">
         <v>24</v>
@@ -1929,8 +1915,7 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
+      <c r="L27" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1953,9 +1938,8 @@
       <c r="K28">
         <v>3.5</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>24.511099365750532</v>
+      <c r="L28" s="15">
+        <v>18.498942899999999</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1977,8 +1961,7 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
+      <c r="L29" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2001,8 +1984,7 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
+      <c r="L30" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2025,9 +2007,8 @@
       <c r="K31">
         <v>2.4</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>16.807610993657505</v>
+      <c r="L31" s="15">
+        <v>12.684989399999999</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2049,9 +2030,8 @@
       <c r="K32">
         <v>10.6</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>74.233615221987321</v>
+      <c r="L32" s="15">
+        <v>56.025370000000002</v>
       </c>
     </row>
     <row r="33" spans="4:12">
@@ -2078,7 +2058,8 @@
         <v>189.19999999999996</v>
       </c>
       <c r="L33">
-        <v>1325</v>
+        <f>SUM(L3:L32)</f>
+        <v>1000.0000002999999</v>
       </c>
     </row>
     <row r="34" spans="4:12">
